--- a/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>5,32</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,35</t>
+          <t>0,85; 26,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,09</t>
+          <t>0,19; 16,13</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>499,02%</t>
+          <t>337,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>630,35%</t>
+          <t>335,57%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,2; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 12,26</t>
+          <t>5,22; 18,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 4,8</t>
+          <t>-2,65; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,39</t>
+          <t>2,48; 10,43</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>145,88%</t>
+          <t>268,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>142,85%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 363,4</t>
+          <t>68,38; 881,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 186,89</t>
+          <t>-42,85; 271,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,48; 211,09</t>
+          <t>27,93; 309,1</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,85</t>
+          <t>13,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>22,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>18,09</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 20,11</t>
+          <t>5,04; 22,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 28,9</t>
+          <t>14,42; 29,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,69; 22,47</t>
+          <t>11,82; 24,01</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>149,79%</t>
+          <t>159,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>284,11%</t>
+          <t>251,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>218,79%</t>
+          <t>211,15%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,77; 346,83</t>
+          <t>37,31; 468,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155,66; 551,63</t>
+          <t>115,64; 511,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>120,36; 356,81</t>
+          <t>101,21; 383,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,04</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>155,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>193,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>174,91%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,96; 303,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>101,52; 322,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>103,88; 265,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11,23</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 15,38</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 15,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 14,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>204,27%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>180,35%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>189,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>89,43; 434,5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>77,62; 334,08</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>106,91; 306,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,193 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,19</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.13728628337237</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.134198994720054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 26,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 16,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>1.180005806225293</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4847916949117174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>337,5%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>335,57%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>28.45027042366385</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.6565656651472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="n">
+        <v>3.824211843332984</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.009760944764135</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 18,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 6,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 10,43</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>268,95%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>36,6%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>142,85%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>11.54515842978008</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.444703754723005</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.423836018535789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>68,38; 881,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-42,85; 271,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>27,93; 309,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.025188193957933</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.964302965252748</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.553705620597267</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>22,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.85097252361455</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.292869647326681</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.68009503754316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 22,49</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>14,42; 29,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11,82; 24,01</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.792755828440309</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.3005528894355642</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.43195469482682</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>159,47%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>251,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>211,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.7239386573047812</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4456165359633057</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.294782777533949</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>37,31; 468,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>115,64; 511,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>101,21; 383,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>8.972115282331021</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.559107603540109</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.153314469783236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +757,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>13.1700563722613</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>22.55597540081621</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>18.3127814420621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5.014542412407413</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>14.94504343072125</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>11.98376392545218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>21.86645083520223</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>30.17401298456192</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>23.94235897527852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.66474476389052</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.680780689536684</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2.237196089096688</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.4159124961896111</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.264349234779594</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.11686155285153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 15,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 15,37</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 14,07</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.67350198769677</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>5.419971066142524</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>4.094589433267275</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>204,27%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>180,35%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>189,89%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>10.59359755088481</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.22977724773986</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.92410463489152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>89,43; 434,5</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>77,62; 334,08</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>106,91; 306,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>6.210343901995972</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.469573456591121</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>7.609420707373676</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.54957382429715</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.30206450967919</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.15383590370072</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>2.113815492447708</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.866878819712633</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.96971141224667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.9171296250673078</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7856544355881676</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.125260744610353</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>4.565849801723164</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.416547105880733</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.184281968430222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
